--- a/src/main/resources/caseconf/Infoquery/Case_userinfoquery.xlsx
+++ b/src/main/resources/caseconf/Infoquery/Case_userinfoquery.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangjianjie/Documents/work/Git/Data_Center_Platform/src/main/resources/caseconf/userinfoquery/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangjianjie/Documents/work/Git/Auto_test/Data_Center_Platform/src/main/resources/caseconf/Infoquery/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9040" yWindow="-28800" windowWidth="51200" windowHeight="28800"/>
+    <workbookView xWindow="-9040" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="userinfoquery" sheetId="2" r:id="rId1"/>
@@ -274,16 +274,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into `seraph`.`user_info` ( `user_id`, `tenant_id`, `tenant_user_id`, `blood_type`, `religion`, `working_status`, `born_city`, `country`, `province`, `city`, `district`, `street`, `village`, `street_code_rt`, `street_code_rw`, `create_time`, `update_time`, `school`, `degree`, `education`, `education_status`, `marital`, `other_info`) values ( '699267680360341504', '1001', '111111', 'O', '汉族', '在职', '河北', '河北省', '衡水市', '景县', '庙镇','北街', '东王', '街道rt', '街道rw',  '2020-04-17 10:22:54', '2020-04-17 19:05:37', null, null, null, null, null, null);</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "resCode":"E0000",
     "resMsg":"成功",
@@ -453,6 +443,15 @@
   <si>
     <t>2级</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","dca7ac134311d1a7699db2f9d2189350","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into `seraph`.`user_info` ( `user_id`, `tenant_id`, `tenant_user_id`, `blood_type`, `religion`, `working_status`, `born_city`, `country`, `province`, `city`, `district`, `street`, `village`, `street_code_rt`, `street_code_rw`, `create_time`, `update_time`, `school`, `degree`, `education`, `education_status`, `marital`, `other_info`) values ( '699267680360341504', '1001', '111111', 'O', '汉族', '在职', '河北', '河北省', '衡水市', '景县', '庙镇','北街', '东王', '街道rt', '街道rw',  '2020-04-17 10:22:54', '2020-04-17 19:05:37', null, null, null, null, null, null);</t>
   </si>
 </sst>
 </file>
@@ -914,10 +913,10 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -985,7 +984,7 @@
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>16</v>
@@ -998,7 +997,7 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="20" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>25</v>
@@ -1017,7 +1016,7 @@
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" s="12"/>
     </row>
@@ -1047,23 +1046,23 @@
         <v>13</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>17</v>
@@ -1081,23 +1080,23 @@
         <v>13</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>17</v>
@@ -1115,23 +1114,23 @@
         <v>13</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>17</v>
@@ -1149,23 +1148,23 @@
         <v>13</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" s="11" customFormat="1" ht="225" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>17</v>
@@ -1183,11 +1182,11 @@
         <v>13</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N7" s="9"/>
     </row>

--- a/src/main/resources/caseconf/Infoquery/Case_userinfoquery.xlsx
+++ b/src/main/resources/caseconf/Infoquery/Case_userinfoquery.xlsx
@@ -275,32 +275,6 @@
   </si>
   <si>
     <t>{
-    "resCode":"E0000",
-    "resMsg":"成功",
-    "successful":1,
-    "data":{
-        "userId":699267680360341504,
-        "bloodType":"O",
-        "religion":"汉族",
-        "workingStatus":"在职",
-        "bornCity":"河北",
-        "country":"河北省",
-        "province":"衡水市",
-        "city":"景县",
-        "district":"庙镇",
-        "street":"北街",
-        "village":"东王",
-        "streetCodeRt":"街道rt",
-        "streetCodeRw":"街道rw"
-    }
-}</t>
-    <rPh sb="286" eb="287">
-      <t>jing'xian</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "tenantId":"1001",
 "tenantUserId": "999999"
 }</t>
@@ -452,6 +426,31 @@
 insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","dca7ac134311d1a7699db2f9d2189350","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
 insert into `seraph`.`user_info` ( `user_id`, `tenant_id`, `tenant_user_id`, `blood_type`, `religion`, `working_status`, `born_city`, `country`, `province`, `city`, `district`, `street`, `village`, `street_code_rt`, `street_code_rw`, `create_time`, `update_time`, `school`, `degree`, `education`, `education_status`, `marital`, `other_info`) values ( '699267680360341504', '1001', '111111', 'O', '汉族', '在职', '河北', '河北省', '衡水市', '景县', '庙镇','北街', '东王', '街道rt', '街道rw',  '2020-04-17 10:22:54', '2020-04-17 19:05:37', null, null, null, null, null, null);</t>
+  </si>
+  <si>
+    <t>{
+    "resCode":"E0000",
+    "resMsg":"成功",
+    "successful":1,
+    "data":{
+        "country":"河北省",
+        "city":"景县",
+        "bornCity":"河北",
+        "tenantUserId":"111111",
+        "bloodType":"O",
+        "userId":699267680360341504,
+        "religion":"汉族",
+        "province":"衡水市",
+        "street":"北街",
+        "district":"庙镇",
+        "tenantId":"1001",
+        "streetCodeRt":"街道rt",
+        "workingStatus":"在职",
+        "village":"东王",
+        "streetCodeRw":"街道rw"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -913,10 +912,10 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -984,7 +983,7 @@
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>16</v>
@@ -997,7 +996,7 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>25</v>
@@ -1016,7 +1015,7 @@
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="17" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N2" s="12"/>
     </row>
@@ -1046,23 +1045,23 @@
         <v>13</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>17</v>
@@ -1080,23 +1079,23 @@
         <v>13</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>17</v>
@@ -1114,23 +1113,23 @@
         <v>13</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>17</v>
@@ -1148,23 +1147,23 @@
         <v>13</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" s="11" customFormat="1" ht="225" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>17</v>
@@ -1182,11 +1181,11 @@
         <v>13</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7" s="9"/>
     </row>
